--- a/CashFlow/HES_cashflow.xlsx
+++ b/CashFlow/HES_cashflow.xlsx
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1390000000.0</v>
+        <v>-117000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1040000000.0</v>
+        <v>-133000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>607000000.0</v>
+        <v>-82000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>243000000.0</v>
+        <v>44000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-16000000.0</v>
@@ -946,16 +946,16 @@
         </is>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1138000000.0</v>
+        <v>-533000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1069000000.0</v>
+        <v>-550000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>872000000.0</v>
+        <v>-386000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>639000000.0</v>
+        <v>-55000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>4000000.0</v>
